--- a/Checklists/Mobile_App_Security_Checklist-French_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED7BA8-1C2B-F44D-9BC2-527B0C849D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B9E7A-0CD7-CA42-90AB-82EE5ACADDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de Bord" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -1385,6 +1385,9 @@
   </si>
   <si>
     <t>Testing Obfuscation (MSTG-RESILIENCE-9)</t>
+  </si>
+  <si>
+    <t>1.1.3-excel</t>
   </si>
 </sst>
 </file>
@@ -2786,167 +2789,167 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -4226,8 +4229,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4239,48 +4242,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="144" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="156"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="156"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="161"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="155"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="63" t="s">
@@ -4290,31 +4293,31 @@
       <c r="D10" s="65"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="165"/>
+      <c r="C11" s="158"/>
       <c r="D11" s="70">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="165"/>
+      <c r="C12" s="158"/>
       <c r="D12" s="66" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.2/Document/</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="156" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="42">
-        <v>1.2</v>
+      <c r="C13" s="157"/>
+      <c r="D13" s="42" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
@@ -4324,7 +4327,7 @@
       <c r="C14" s="34"/>
       <c r="D14" s="41" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-mstg/blob/",VERSION_MSTG,"/Document/"))</f>
-        <v>https://github.com/OWASP/owasp-mstg/blob/1.2/Document/</v>
+        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4349,55 +4352,55 @@
       <c r="D17" s="42"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="142" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="152"/>
+      <c r="C18" s="143"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="143"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="143"/>
+      <c r="C20" s="141"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="143"/>
+      <c r="C21" s="141"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="143"/>
+      <c r="C22" s="141"/>
       <c r="D22" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="143"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
@@ -4414,37 +4417,37 @@
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="142" t="s">
+      <c r="B27" s="140" t="s">
         <v>204</v>
       </c>
-      <c r="C27" s="143"/>
+      <c r="C27" s="141"/>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="143"/>
+      <c r="C28" s="141"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="143"/>
+      <c r="C29" s="141"/>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="167" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="151"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="164"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
@@ -4461,37 +4464,37 @@
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="140" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="143"/>
+      <c r="C34" s="141"/>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="142" t="s">
+      <c r="B35" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="143"/>
+      <c r="C35" s="141"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="142" t="s">
+      <c r="B36" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="143"/>
+      <c r="C36" s="141"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="165" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="149"/>
+      <c r="C37" s="166"/>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="145"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="155"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
@@ -4501,97 +4504,97 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="141"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="161"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="138"/>
+      <c r="C41" s="162"/>
       <c r="D41" s="24"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="138"/>
+      <c r="C42" s="162"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="138"/>
+      <c r="C43" s="162"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="137" t="s">
+      <c r="B44" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="138"/>
+      <c r="C44" s="162"/>
       <c r="D44" s="25"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="138"/>
+      <c r="C45" s="162"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="141"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="161"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="137" t="s">
+      <c r="B47" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="138"/>
+      <c r="C47" s="162"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="137" t="s">
+      <c r="B48" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="138"/>
+      <c r="C48" s="162"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="137" t="s">
+      <c r="B49" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="138"/>
+      <c r="C49" s="162"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="137" t="s">
+      <c r="B50" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="138"/>
+      <c r="C50" s="162"/>
       <c r="D50" s="25"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="137" t="s">
+      <c r="B51" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="138"/>
+      <c r="C51" s="162"/>
       <c r="D51" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4606,16 +4609,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4661,11 +4664,11 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
@@ -4680,16 +4683,16 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="186" t="s">
         <v>194</v>
       </c>
-      <c r="H6" s="181"/>
-      <c r="I6" s="182"/>
-      <c r="V6" s="183" t="s">
+      <c r="H6" s="187"/>
+      <c r="I6" s="188"/>
+      <c r="V6" s="169" t="s">
         <v>233</v>
       </c>
-      <c r="W6" s="184"/>
-      <c r="X6" s="185"/>
+      <c r="W6" s="170"/>
+      <c r="X6" s="171"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
@@ -4704,18 +4707,18 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="171">
+      <c r="G8" s="172">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="172"/>
-      <c r="I8" s="173"/>
-      <c r="V8" s="171">
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="V8" s="172">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="172"/>
-      <c r="X8" s="173"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="174"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20"/>
@@ -4723,12 +4726,12 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="176"/>
-      <c r="V9" s="174"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="176"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="177"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="12"/>
@@ -4736,12 +4739,12 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="176"/>
-      <c r="V10" s="174"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="176"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="177"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="177"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
@@ -4749,19 +4752,19 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="179"/>
-      <c r="V11" s="177"/>
-      <c r="W11" s="178"/>
-      <c r="X11" s="179"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="180"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="179"/>
+      <c r="X11" s="180"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B13" s="13"/>
@@ -4785,11 +4788,11 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="13"/>
@@ -4842,18 +4845,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D41" s="167" t="s">
+      <c r="D41" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="167" t="s">
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="169"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="184"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D42" s="16" t="s">
@@ -5179,15 +5182,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <conditionalFormatting sqref="F14">
@@ -5249,16 +5252,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="73"/>
@@ -5291,11 +5294,11 @@
       <c r="G3" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="187" t="s">
+      <c r="H3" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
       <c r="K3" s="78" t="s">
         <v>213</v>
       </c>
@@ -5311,9 +5314,9 @@
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
       <c r="K4" s="82"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -7969,16 +7972,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="189" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
       <c r="J1" s="71"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
@@ -8012,11 +8015,11 @@
       <c r="G3" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="187" t="s">
+      <c r="H3" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
       <c r="K3" s="78" t="s">
         <v>213</v>
       </c>
@@ -8032,8 +8035,8 @@
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
       <c r="J4" s="80"/>
       <c r="K4" s="82"/>
     </row>
@@ -10133,7 +10136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -10286,7 +10289,7 @@
       <c r="F8" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="191" t="s">
+      <c r="G8" s="138" t="s">
         <v>399</v>
       </c>
       <c r="H8" s="90"/>
@@ -10307,7 +10310,7 @@
       <c r="F9" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="191" t="s">
+      <c r="G9" s="138" t="s">
         <v>400</v>
       </c>
       <c r="H9" s="90"/>
@@ -10328,7 +10331,7 @@
       <c r="F10" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="190"/>
+      <c r="G10" s="137"/>
       <c r="H10" s="90"/>
     </row>
     <row r="11" spans="2:8" ht="32" x14ac:dyDescent="0.2">
@@ -10347,7 +10350,7 @@
       <c r="F11" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="192" t="s">
+      <c r="G11" s="139" t="s">
         <v>75</v>
       </c>
       <c r="H11" s="90"/>
@@ -10368,7 +10371,7 @@
       <c r="F12" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="192" t="s">
+      <c r="G12" s="139" t="s">
         <v>75</v>
       </c>
       <c r="H12" s="90"/>
@@ -10389,7 +10392,7 @@
       <c r="F13" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="191" t="s">
+      <c r="G13" s="138" t="s">
         <v>401</v>
       </c>
       <c r="H13" s="90"/>
@@ -10665,10 +10668,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="189"/>
+      <c r="B1" s="192"/>
       <c r="C1" s="50"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>

--- a/Checklists/Mobile_App_Security_Checklist-French_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-French_1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathis_hesse\Documents\Git\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B9E7A-0CD7-CA42-90AB-82EE5ACADDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A0F4A-C2D5-4767-91CE-0061FB284AA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de Bord" sheetId="6" r:id="rId1"/>
@@ -36,9 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -1397,7 +1395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2795,13 +2793,49 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2836,12 +2870,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2850,36 +2878,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2953,68 +2951,68 @@
     </xf>
   </cellXfs>
   <cellStyles count="62">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3047,7 +3045,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3275,7 +3273,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918959216"/>
@@ -3328,7 +3326,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918956896"/>
@@ -3375,7 +3373,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3405,7 +3403,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3419,7 +3417,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3627,7 +3625,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920829984"/>
@@ -3680,7 +3678,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920827664"/>
@@ -3727,7 +3725,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3757,7 +3755,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4233,94 +4231,94 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.296875" customWidth="1"/>
+    <col min="3" max="3" width="43.796875" customWidth="1"/>
     <col min="4" max="4" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="144" t="s">
+    <row r="1" spans="2:4" ht="8.25" customHeight="1"/>
+    <row r="2" spans="2:4">
+      <c r="B2" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="147"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="147"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="147"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-    </row>
-    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="152"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="153" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="158"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
+    </row>
+    <row r="8" spans="2:4" hidden="1">
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="164"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.2">
+      <c r="B9" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="63" t="s">
         <v>195</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="65"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="158" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="168" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="158"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="70">
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="158" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="168" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="158"/>
+      <c r="C12" s="168"/>
       <c r="D12" s="66" t="str">
         <f>HYPERLINK(CONCATENATE("https://github.com/OWASP/owasp-masvs/blob/",VERSION_MASVS,"/Document/"))</f>
         <v>https://github.com/OWASP/owasp-masvs/blob/1.2/Document/</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="156" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="166" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="157"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="42" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4">
       <c r="B14" s="33" t="s">
         <v>232</v>
       </c>
@@ -4330,271 +4328,271 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="35.25" customHeight="1">
       <c r="B15" s="43" t="s">
         <v>234</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="46"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4">
       <c r="B16" s="43" t="s">
         <v>196</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="44"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="42"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="142" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="140" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="143"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="140" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="141"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="140" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="145" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="141"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="140" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="141"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="140" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="141"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="140" t="s">
+    <row r="23" spans="2:4" ht="70.5" customHeight="1">
+      <c r="B23" s="145" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="141"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="16.2">
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4">
       <c r="B26" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="140" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="145" t="s">
         <v>204</v>
       </c>
-      <c r="C27" s="141"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="140" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="141"/>
+      <c r="C28" s="146"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="140" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="141"/>
+      <c r="C29" s="146"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="167" t="s">
+    <row r="30" spans="2:4" ht="35.25" customHeight="1">
+      <c r="B30" s="153" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="168"/>
+      <c r="C30" s="154"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="164"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" ht="16.2">
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4">
       <c r="B33" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="140" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="141"/>
+      <c r="C34" s="146"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="140" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="141"/>
+      <c r="C35" s="146"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="140" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="141"/>
+      <c r="C36" s="146"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="165" t="s">
+    <row r="37" spans="2:4" ht="30.75" customHeight="1">
+      <c r="B37" s="151" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="166"/>
+      <c r="C37" s="152"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="155"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" ht="16.2">
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="148"/>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="159"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="161"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="142" t="s">
+    <row r="40" spans="2:4" ht="16.2">
+      <c r="B40" s="142"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="144"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="162"/>
+      <c r="C41" s="141"/>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="142" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="162"/>
+      <c r="C42" s="141"/>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="142" t="s">
+    <row r="43" spans="2:4">
+      <c r="B43" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="162"/>
+      <c r="C43" s="141"/>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="142" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="162"/>
+      <c r="C44" s="141"/>
       <c r="D44" s="25"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="142" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="162"/>
+      <c r="C45" s="141"/>
       <c r="D45" s="24"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="159"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="161"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="142" t="s">
+    <row r="46" spans="2:4" ht="16.2">
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="162"/>
+      <c r="C47" s="141"/>
       <c r="D47" s="24"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="142" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="162"/>
+      <c r="C48" s="141"/>
       <c r="D48" s="24"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="142" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="162"/>
+      <c r="C49" s="141"/>
       <c r="D49" s="24"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="142" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="162"/>
+      <c r="C50" s="141"/>
       <c r="D50" s="25"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="142" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="162"/>
+      <c r="C51" s="141"/>
       <c r="D51" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:D40"/>
@@ -4609,16 +4607,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4634,20 +4632,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54.796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="6" style="5" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" style="5" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="5"/>
+    <col min="8" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:24" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:24" ht="15.6" thickBot="1">
       <c r="B2" s="6"/>
       <c r="C2" s="21" t="s">
         <v>88</v>
@@ -4656,28 +4654,28 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:24" ht="15">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:24" ht="15">
       <c r="B4" s="185"/>
       <c r="C4" s="185"/>
       <c r="D4" s="185"/>
       <c r="E4" s="185"/>
       <c r="F4" s="185"/>
     </row>
-    <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="2:24" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" ht="19.05" customHeight="1" thickBot="1">
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -4694,14 +4692,14 @@
       <c r="W6" s="170"/>
       <c r="X6" s="171"/>
     </row>
-    <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" ht="15.6" thickBot="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:24" ht="16.05" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -4720,7 +4718,7 @@
       <c r="W8" s="173"/>
       <c r="X8" s="174"/>
     </row>
-    <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:24" ht="91.05" customHeight="1">
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -4733,7 +4731,7 @@
       <c r="W9" s="176"/>
       <c r="X9" s="177"/>
     </row>
-    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -4746,7 +4744,7 @@
       <c r="W10" s="176"/>
       <c r="X10" s="177"/>
     </row>
-    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4759,92 +4757,92 @@
       <c r="W11" s="179"/>
       <c r="X11" s="180"/>
     </row>
-    <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:24" ht="16.05" customHeight="1">
       <c r="B12" s="181"/>
       <c r="C12" s="181"/>
       <c r="D12" s="181"/>
       <c r="E12" s="181"/>
       <c r="F12" s="181"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:24" ht="14.4">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:24" ht="14.4">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:24" ht="15">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:24" ht="16.05" customHeight="1">
       <c r="B16" s="181"/>
       <c r="C16" s="181"/>
       <c r="D16" s="181"/>
       <c r="E16" s="181"/>
       <c r="F16" s="181"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="14.4">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" ht="14.4">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="B20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6">
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6">
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6">
       <c r="C27" s="17"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6">
       <c r="C29" s="17"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6">
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6">
       <c r="C31" s="17"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6">
       <c r="C32" s="17"/>
     </row>
-    <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
+    <row r="41" spans="3:11" ht="14.4">
       <c r="D41" s="182" t="s">
         <v>71</v>
       </c>
@@ -4858,7 +4856,7 @@
       <c r="J41" s="183"/>
       <c r="K41" s="184"/>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:11">
       <c r="D42" s="16" t="s">
         <v>67</v>
       </c>
@@ -4884,7 +4882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:11" ht="14.4">
       <c r="C43" s="10" t="s">
         <v>228</v>
       </c>
@@ -4921,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:11" ht="14.4">
       <c r="C44" s="10" t="s">
         <v>192</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:11" ht="14.4">
       <c r="C45" s="10" t="s">
         <v>116</v>
       </c>
@@ -4995,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:11" ht="14.4">
       <c r="C46" s="10" t="s">
         <v>89</v>
       </c>
@@ -5032,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:11" ht="14.4">
       <c r="C47" s="10" t="s">
         <v>117</v>
       </c>
@@ -5069,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:11" ht="14.4">
       <c r="C48" s="10" t="s">
         <v>231</v>
       </c>
@@ -5106,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:11" ht="14.4">
       <c r="C49" s="10" t="s">
         <v>193</v>
       </c>
@@ -5143,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:11" ht="14.4">
       <c r="C50" s="10" t="s">
         <v>90</v>
       </c>
@@ -5232,26 +5230,28 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:K94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="72" customWidth="1"/>
     <col min="2" max="2" width="8" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" style="72" customWidth="1"/>
     <col min="4" max="4" width="96.5" style="118" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="72" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="72" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" style="72" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="101.5" style="72" customWidth="1"/>
     <col min="9" max="9" width="83.5" style="72" customWidth="1"/>
-    <col min="10" max="10" width="71.1640625" style="72" customWidth="1"/>
+    <col min="10" max="10" width="71.19921875" style="72" customWidth="1"/>
     <col min="11" max="11" width="58" style="72" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="10.796875" style="72" customWidth="1"/>
     <col min="13" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="189" t="s">
         <v>118</v>
       </c>
@@ -5263,7 +5263,7 @@
       <c r="H1" s="189"/>
       <c r="I1" s="189"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
       <c r="D2" s="74"/>
@@ -5275,7 +5275,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="75" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="79" t="s">
         <v>1</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="J4" s="191"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="83" t="s">
         <v>2</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="J5" s="89"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="83" t="s">
         <v>247</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="J6" s="91"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="28.8">
       <c r="B7" s="83" t="s">
         <v>248</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="J7" s="89"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="83" t="s">
         <v>250</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="J8" s="89"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="83" t="s">
         <v>249</v>
       </c>
@@ -5468,7 +5468,7 @@
       <c r="J9" s="89"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="83" t="s">
         <v>251</v>
       </c>
@@ -5496,7 +5496,7 @@
       <c r="J10" s="89"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="83" t="s">
         <v>4</v>
       </c>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="83" t="s">
         <v>252</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="J12" s="89"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="83" t="s">
         <v>253</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="J13" s="89"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="93" t="s">
         <v>5</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="J14" s="89"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="93" t="s">
         <v>362</v>
       </c>
@@ -5639,7 +5639,7 @@
       <c r="J15" s="89"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="93" t="s">
         <v>363</v>
       </c>
@@ -5661,7 +5661,7 @@
       <c r="J16" s="89"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="95" t="s">
         <v>6</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="J17" s="97"/>
       <c r="K17" s="98"/>
     </row>
-    <row r="18" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="43.2">
       <c r="B18" s="83" t="s">
         <v>7</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="J18" s="89"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="28.8">
       <c r="B19" s="83" t="s">
         <v>39</v>
       </c>
@@ -5715,8 +5715,12 @@
       <c r="D19" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
+      <c r="E19" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="87"/>
       <c r="H19" s="101" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data-mstg-storage-1-and-mstg-storage-2"),"Testing Local Storage for Sensitive Data (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
@@ -5726,7 +5730,7 @@
       <c r="J19" s="89"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="83" t="s">
         <v>40</v>
       </c>
@@ -5751,7 +5755,7 @@
       <c r="J20" s="89"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="83" t="s">
         <v>8</v>
       </c>
@@ -5776,7 +5780,7 @@
       <c r="J21" s="89"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="83" t="s">
         <v>41</v>
       </c>
@@ -5801,7 +5805,7 @@
       <c r="J22" s="89"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="83" t="s">
         <v>9</v>
       </c>
@@ -5826,7 +5830,7 @@
       <c r="J23" s="89"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="83" t="s">
         <v>10</v>
       </c>
@@ -5851,7 +5855,7 @@
       <c r="J24" s="89"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="83" t="s">
         <v>11</v>
       </c>
@@ -5876,7 +5880,7 @@
       <c r="J25" s="89"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="83" t="s">
         <v>12</v>
       </c>
@@ -5901,7 +5905,7 @@
       <c r="J26" s="89"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="28.8">
       <c r="B27" s="83" t="s">
         <v>42</v>
       </c>
@@ -5926,7 +5930,7 @@
       <c r="J27" s="89"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" ht="28.8">
       <c r="B28" s="83" t="s">
         <v>43</v>
       </c>
@@ -5954,7 +5958,7 @@
       <c r="J28" s="89"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="28.8">
       <c r="B29" s="83" t="s">
         <v>13</v>
       </c>
@@ -5979,7 +5983,7 @@
       <c r="J29" s="89"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" ht="28.8">
       <c r="B30" s="83" t="s">
         <v>368</v>
       </c>
@@ -6001,7 +6005,7 @@
       <c r="J30" s="89"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="28.8">
       <c r="B31" s="83" t="s">
         <v>369</v>
       </c>
@@ -6023,7 +6027,7 @@
       <c r="J31" s="89"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="83" t="s">
         <v>370</v>
       </c>
@@ -6045,7 +6049,7 @@
       <c r="J32" s="89"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11">
       <c r="B33" s="95" t="s">
         <v>14</v>
       </c>
@@ -6061,7 +6065,7 @@
       <c r="J33" s="97"/>
       <c r="K33" s="98"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11">
       <c r="B34" s="83" t="s">
         <v>15</v>
       </c>
@@ -6089,7 +6093,7 @@
       <c r="J34" s="89"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" ht="31.2">
       <c r="B35" s="83" t="s">
         <v>16</v>
       </c>
@@ -6117,7 +6121,7 @@
       <c r="J35" s="89"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="31.2">
       <c r="B36" s="83" t="s">
         <v>17</v>
       </c>
@@ -6145,7 +6149,7 @@
       <c r="J36" s="89"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="31.2">
       <c r="B37" s="83" t="s">
         <v>18</v>
       </c>
@@ -6173,7 +6177,7 @@
       <c r="J37" s="89"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11">
       <c r="B38" s="83" t="s">
         <v>19</v>
       </c>
@@ -6198,7 +6202,7 @@
       <c r="J38" s="89"/>
       <c r="K38" s="90"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11">
       <c r="B39" s="83" t="s">
         <v>20</v>
       </c>
@@ -6223,7 +6227,7 @@
       <c r="J39" s="89"/>
       <c r="K39" s="90"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="95" t="s">
         <v>21</v>
       </c>
@@ -6239,7 +6243,7 @@
       <c r="J40" s="97"/>
       <c r="K40" s="98"/>
     </row>
-    <row r="41" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" ht="28.8">
       <c r="B41" s="83" t="s">
         <v>22</v>
       </c>
@@ -6270,7 +6274,7 @@
       </c>
       <c r="K41" s="90"/>
     </row>
-    <row r="42" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" ht="28.8">
       <c r="B42" s="83" t="s">
         <v>44</v>
       </c>
@@ -6295,7 +6299,7 @@
       <c r="J42" s="89"/>
       <c r="K42" s="90"/>
     </row>
-    <row r="43" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" ht="28.8">
       <c r="B43" s="83" t="s">
         <v>45</v>
       </c>
@@ -6323,7 +6327,7 @@
       <c r="J43" s="89"/>
       <c r="K43" s="90"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44" s="83" t="s">
         <v>23</v>
       </c>
@@ -6333,8 +6337,12 @@
       <c r="D44" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
+      <c r="E44" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="86" t="s">
+        <v>3</v>
+      </c>
       <c r="G44" s="87"/>
       <c r="H44" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -6344,7 +6352,7 @@
       <c r="J44" s="89"/>
       <c r="K44" s="90"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11">
       <c r="B45" s="83" t="s">
         <v>24</v>
       </c>
@@ -6369,7 +6377,7 @@
       <c r="J45" s="89"/>
       <c r="K45" s="90"/>
     </row>
-    <row r="46" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" ht="28.8">
       <c r="B46" s="83" t="s">
         <v>46</v>
       </c>
@@ -6397,7 +6405,7 @@
       <c r="J46" s="89"/>
       <c r="K46" s="90"/>
     </row>
-    <row r="47" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" ht="28.8">
       <c r="B47" s="83" t="s">
         <v>47</v>
       </c>
@@ -6422,7 +6430,7 @@
       <c r="J47" s="103"/>
       <c r="K47" s="104"/>
     </row>
-    <row r="48" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" ht="43.2">
       <c r="B48" s="83" t="s">
         <v>25</v>
       </c>
@@ -6447,7 +6455,7 @@
       <c r="J48" s="89"/>
       <c r="K48" s="90"/>
     </row>
-    <row r="49" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" ht="28.8">
       <c r="B49" s="83" t="s">
         <v>26</v>
       </c>
@@ -6472,7 +6480,7 @@
       <c r="J49" s="89"/>
       <c r="K49" s="90"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11">
       <c r="B50" s="83" t="s">
         <v>27</v>
       </c>
@@ -6497,7 +6505,7 @@
       <c r="J50" s="89"/>
       <c r="K50" s="90"/>
     </row>
-    <row r="51" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" ht="43.2">
       <c r="B51" s="83" t="s">
         <v>80</v>
       </c>
@@ -6522,7 +6530,7 @@
       <c r="J51" s="89"/>
       <c r="K51" s="90"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11">
       <c r="B52" s="83" t="s">
         <v>378</v>
       </c>
@@ -6544,7 +6552,7 @@
       <c r="J52" s="89"/>
       <c r="K52" s="90"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11">
       <c r="B53" s="95" t="s">
         <v>28</v>
       </c>
@@ -6560,7 +6568,7 @@
       <c r="J53" s="97"/>
       <c r="K53" s="98"/>
     </row>
-    <row r="54" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" ht="28.8">
       <c r="B54" s="83" t="s">
         <v>29</v>
       </c>
@@ -6585,7 +6593,7 @@
       <c r="J54" s="89"/>
       <c r="K54" s="90"/>
     </row>
-    <row r="55" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" ht="28.8">
       <c r="B55" s="83" t="s">
         <v>48</v>
       </c>
@@ -6610,7 +6618,7 @@
       <c r="J55" s="89"/>
       <c r="K55" s="90"/>
     </row>
-    <row r="56" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="83" t="s">
         <v>30</v>
       </c>
@@ -6635,7 +6643,7 @@
       <c r="J56" s="91"/>
       <c r="K56" s="106"/>
     </row>
-    <row r="57" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" ht="43.2">
       <c r="B57" s="83" t="s">
         <v>49</v>
       </c>
@@ -6663,7 +6671,7 @@
       <c r="J57" s="89"/>
       <c r="K57" s="90"/>
     </row>
-    <row r="58" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="83" t="s">
         <v>31</v>
       </c>
@@ -6688,7 +6696,7 @@
       <c r="J58" s="89"/>
       <c r="K58" s="90"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11">
       <c r="B59" s="83" t="s">
         <v>254</v>
       </c>
@@ -6713,7 +6721,7 @@
       <c r="J59" s="89"/>
       <c r="K59" s="90"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60" s="95" t="s">
         <v>32</v>
       </c>
@@ -6729,7 +6737,7 @@
       <c r="J60" s="97"/>
       <c r="K60" s="98"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11">
       <c r="B61" s="83" t="s">
         <v>50</v>
       </c>
@@ -6754,7 +6762,7 @@
       <c r="J61" s="89"/>
       <c r="K61" s="90"/>
     </row>
-    <row r="62" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" ht="43.2">
       <c r="B62" s="83" t="s">
         <v>51</v>
       </c>
@@ -6782,7 +6790,7 @@
       <c r="J62" s="89"/>
       <c r="K62" s="90"/>
     </row>
-    <row r="63" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" ht="28.8">
       <c r="B63" s="83" t="s">
         <v>52</v>
       </c>
@@ -6807,7 +6815,7 @@
       <c r="J63" s="89"/>
       <c r="K63" s="90"/>
     </row>
-    <row r="64" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="34.049999999999997" customHeight="1">
       <c r="B64" s="83" t="s">
         <v>53</v>
       </c>
@@ -6832,7 +6840,7 @@
       <c r="J64" s="89"/>
       <c r="K64" s="90"/>
     </row>
-    <row r="65" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" ht="19.05" customHeight="1">
       <c r="B65" s="83" t="s">
         <v>54</v>
       </c>
@@ -6857,7 +6865,7 @@
       <c r="J65" s="89"/>
       <c r="K65" s="90"/>
     </row>
-    <row r="66" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" ht="43.2">
       <c r="B66" s="83" t="s">
         <v>55</v>
       </c>
@@ -6882,7 +6890,7 @@
       <c r="J66" s="89"/>
       <c r="K66" s="90"/>
     </row>
-    <row r="67" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="28.8">
       <c r="B67" s="83" t="s">
         <v>255</v>
       </c>
@@ -6907,7 +6915,7 @@
       <c r="J67" s="89"/>
       <c r="K67" s="90"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11">
       <c r="B68" s="83" t="s">
         <v>256</v>
       </c>
@@ -6932,7 +6940,7 @@
       <c r="J68" s="89"/>
       <c r="K68" s="90"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11">
       <c r="B69" s="83" t="s">
         <v>382</v>
       </c>
@@ -6954,7 +6962,7 @@
       <c r="J69" s="89"/>
       <c r="K69" s="90"/>
     </row>
-    <row r="70" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" ht="28.8">
       <c r="B70" s="83" t="s">
         <v>383</v>
       </c>
@@ -6976,7 +6984,7 @@
       <c r="J70" s="89"/>
       <c r="K70" s="90"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11">
       <c r="B71" s="83" t="s">
         <v>384</v>
       </c>
@@ -6998,7 +7006,7 @@
       <c r="J71" s="89"/>
       <c r="K71" s="90"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11">
       <c r="B72" s="95" t="s">
         <v>33</v>
       </c>
@@ -7014,7 +7022,7 @@
       <c r="J72" s="97"/>
       <c r="K72" s="98"/>
     </row>
-    <row r="73" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" ht="21" customHeight="1">
       <c r="B73" s="83" t="s">
         <v>56</v>
       </c>
@@ -7039,7 +7047,7 @@
       <c r="J73" s="89"/>
       <c r="K73" s="90"/>
     </row>
-    <row r="74" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" ht="34.5" customHeight="1">
       <c r="B74" s="83" t="s">
         <v>34</v>
       </c>
@@ -7064,7 +7072,7 @@
       <c r="J74" s="89"/>
       <c r="K74" s="90"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11">
       <c r="B75" s="83" t="s">
         <v>57</v>
       </c>
@@ -7089,7 +7097,7 @@
       <c r="J75" s="89"/>
       <c r="K75" s="90"/>
     </row>
-    <row r="76" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" ht="28.8">
       <c r="B76" s="83" t="s">
         <v>58</v>
       </c>
@@ -7114,7 +7122,7 @@
       <c r="J76" s="89"/>
       <c r="K76" s="90"/>
     </row>
-    <row r="77" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" ht="28.8">
       <c r="B77" s="83" t="s">
         <v>59</v>
       </c>
@@ -7139,7 +7147,7 @@
       <c r="J77" s="89"/>
       <c r="K77" s="90"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11">
       <c r="B78" s="83" t="s">
         <v>35</v>
       </c>
@@ -7164,7 +7172,7 @@
       <c r="J78" s="89"/>
       <c r="K78" s="90"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11">
       <c r="B79" s="83" t="s">
         <v>36</v>
       </c>
@@ -7189,7 +7197,7 @@
       <c r="J79" s="89"/>
       <c r="K79" s="90"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11">
       <c r="B80" s="83" t="s">
         <v>37</v>
       </c>
@@ -7214,7 +7222,7 @@
       <c r="J80" s="89"/>
       <c r="K80" s="90"/>
     </row>
-    <row r="81" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" ht="28.8">
       <c r="B81" s="83" t="s">
         <v>81</v>
       </c>
@@ -7239,7 +7247,7 @@
       <c r="J81" s="89"/>
       <c r="K81" s="90"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11">
       <c r="B82" s="107"/>
       <c r="C82" s="108"/>
       <c r="D82" s="109"/>
@@ -7251,7 +7259,7 @@
       <c r="J82" s="108"/>
       <c r="K82" s="110"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:11">
       <c r="B83" s="111"/>
       <c r="C83" s="111"/>
       <c r="D83" s="112"/>
@@ -7263,7 +7271,7 @@
       <c r="J83" s="111"/>
       <c r="K83" s="111"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11">
       <c r="B84" s="111"/>
       <c r="C84" s="111"/>
       <c r="D84" s="89"/>
@@ -7275,7 +7283,7 @@
       <c r="J84" s="111"/>
       <c r="K84" s="111"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11">
       <c r="B85" s="111"/>
       <c r="C85" s="111"/>
       <c r="D85" s="112"/>
@@ -7287,7 +7295,7 @@
       <c r="J85" s="111"/>
       <c r="K85" s="111"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11">
       <c r="B86" s="113" t="s">
         <v>214</v>
       </c>
@@ -7301,7 +7309,7 @@
       <c r="J86" s="111"/>
       <c r="K86" s="111"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:11">
       <c r="B87" s="114" t="s">
         <v>217</v>
       </c>
@@ -7317,7 +7325,7 @@
       <c r="J87" s="111"/>
       <c r="K87" s="111"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:11">
       <c r="B88" s="35" t="s">
         <v>176</v>
       </c>
@@ -7333,7 +7341,7 @@
       <c r="J88" s="111"/>
       <c r="K88" s="111"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:11">
       <c r="B89" s="35" t="s">
         <v>177</v>
       </c>
@@ -7349,7 +7357,7 @@
       <c r="J89" s="111"/>
       <c r="K89" s="111"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:11">
       <c r="B90" s="22" t="s">
         <v>63</v>
       </c>
@@ -7365,7 +7373,7 @@
       <c r="J90" s="111"/>
       <c r="K90" s="111"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11">
       <c r="B91" s="111"/>
       <c r="C91" s="111"/>
       <c r="D91" s="112"/>
@@ -7377,7 +7385,7 @@
       <c r="J91" s="116"/>
       <c r="K91" s="116"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:11">
       <c r="B92" s="111"/>
       <c r="C92" s="111"/>
       <c r="D92" s="112"/>
@@ -7389,7 +7397,7 @@
       <c r="J92" s="116"/>
       <c r="K92" s="116"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11">
       <c r="B93" s="111"/>
       <c r="C93" s="111"/>
       <c r="D93" s="112"/>
@@ -7401,7 +7409,7 @@
       <c r="J93" s="116"/>
       <c r="K93" s="116"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:11">
       <c r="B94" s="116"/>
       <c r="C94" s="116"/>
       <c r="D94" s="117"/>
@@ -7440,20 +7448,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="72" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="72" customWidth="1"/>
     <col min="3" max="3" width="18" style="72" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" style="72" customWidth="1"/>
+    <col min="4" max="4" width="93.296875" style="72" customWidth="1"/>
     <col min="5" max="5" width="3" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.1640625" style="72" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.19921875" style="72" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="72" customWidth="1"/>
     <col min="9" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="128" t="s">
         <v>98</v>
       </c>
@@ -7464,7 +7472,7 @@
       <c r="G1" s="116"/>
       <c r="H1" s="116"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8">
       <c r="B2" s="116"/>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -7473,7 +7481,7 @@
       <c r="G2" s="116"/>
       <c r="H2" s="116"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" s="75" t="s">
         <v>0</v>
       </c>
@@ -7494,7 +7502,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="95"/>
       <c r="C4" s="96"/>
       <c r="D4" s="97" t="s">
@@ -7505,7 +7513,7 @@
       <c r="G4" s="97"/>
       <c r="H4" s="98"/>
     </row>
-    <row r="5" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="83" t="s">
         <v>257</v>
       </c>
@@ -7527,7 +7535,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="28.8">
       <c r="B6" s="83" t="s">
         <v>258</v>
       </c>
@@ -7549,7 +7557,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="B7" s="83" t="s">
         <v>259</v>
       </c>
@@ -7571,7 +7579,7 @@
       </c>
       <c r="H7" s="90"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8" s="83" t="s">
         <v>260</v>
       </c>
@@ -7593,7 +7601,7 @@
       </c>
       <c r="H8" s="90"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="83" t="s">
         <v>261</v>
       </c>
@@ -7615,7 +7623,7 @@
       </c>
       <c r="H9" s="90"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="83" t="s">
         <v>262</v>
       </c>
@@ -7637,7 +7645,7 @@
       </c>
       <c r="H10" s="90"/>
     </row>
-    <row r="11" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="83" t="s">
         <v>263</v>
       </c>
@@ -7658,7 +7666,7 @@
       </c>
       <c r="H11" s="90"/>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="28.8">
       <c r="B12" s="83" t="s">
         <v>264</v>
       </c>
@@ -7679,7 +7687,7 @@
       </c>
       <c r="H12" s="90"/>
     </row>
-    <row r="13" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="28.8">
       <c r="B13" s="83" t="s">
         <v>265</v>
       </c>
@@ -7701,7 +7709,7 @@
       </c>
       <c r="H13" s="90"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
@@ -7712,7 +7720,7 @@
       <c r="G14" s="97"/>
       <c r="H14" s="98"/>
     </row>
-    <row r="15" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="93" t="s">
         <v>60</v>
       </c>
@@ -7734,7 +7742,7 @@
       </c>
       <c r="H15" s="90"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97" t="s">
@@ -7745,7 +7753,7 @@
       <c r="G16" s="97"/>
       <c r="H16" s="98"/>
     </row>
-    <row r="17" spans="2:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="83" t="s">
         <v>266</v>
       </c>
@@ -7767,7 +7775,7 @@
       </c>
       <c r="H17" s="90"/>
     </row>
-    <row r="18" spans="2:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="72">
       <c r="B18" s="83" t="s">
         <v>267</v>
       </c>
@@ -7788,7 +7796,7 @@
       </c>
       <c r="H18" s="90"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97" t="s">
@@ -7799,7 +7807,7 @@
       <c r="G19" s="97"/>
       <c r="H19" s="98"/>
     </row>
-    <row r="20" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="83" t="s">
         <v>391</v>
       </c>
@@ -7820,7 +7828,7 @@
       </c>
       <c r="H20" s="90"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="107"/>
       <c r="C21" s="108"/>
       <c r="D21" s="109"/>
@@ -7829,7 +7837,7 @@
       <c r="G21" s="108"/>
       <c r="H21" s="110"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
       <c r="D22" s="111"/>
@@ -7838,7 +7846,7 @@
       <c r="G22" s="111"/>
       <c r="H22" s="111"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="111"/>
       <c r="C23" s="111"/>
       <c r="D23" s="111"/>
@@ -7847,7 +7855,7 @@
       <c r="G23" s="111"/>
       <c r="H23" s="111"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="113" t="s">
         <v>214</v>
       </c>
@@ -7858,7 +7866,7 @@
       <c r="G24" s="111"/>
       <c r="H24" s="111"/>
     </row>
-    <row r="25" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="114" t="s">
         <v>217</v>
       </c>
@@ -7871,7 +7879,7 @@
       <c r="G25" s="111"/>
       <c r="H25" s="111"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="35" t="s">
         <v>176</v>
       </c>
@@ -7884,7 +7892,7 @@
       <c r="G26" s="111"/>
       <c r="H26" s="111"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="35" t="s">
         <v>177</v>
       </c>
@@ -7897,7 +7905,7 @@
       <c r="G27" s="111"/>
       <c r="H27" s="111"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="22" t="s">
         <v>63</v>
       </c>
@@ -7910,7 +7918,7 @@
       <c r="G28" s="111"/>
       <c r="H28" s="111"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
       <c r="D29" s="116"/>
@@ -7919,7 +7927,7 @@
       <c r="G29" s="116"/>
       <c r="H29" s="116"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
       <c r="D30" s="116"/>
@@ -7928,7 +7936,7 @@
       <c r="G30" s="116"/>
       <c r="H30" s="116"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="116"/>
       <c r="C31" s="116"/>
       <c r="D31" s="116"/>
@@ -7953,25 +7961,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="72" customWidth="1"/>
     <col min="2" max="2" width="8" style="72" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" style="72" customWidth="1"/>
     <col min="4" max="4" width="96.5" style="118" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="72" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="72" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" style="72" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="91.5" style="72" customWidth="1"/>
-    <col min="9" max="10" width="75.33203125" style="72" customWidth="1"/>
-    <col min="11" max="11" width="47.83203125" style="72" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="72" customWidth="1"/>
+    <col min="9" max="10" width="75.296875" style="72" customWidth="1"/>
+    <col min="11" max="11" width="47.796875" style="72" customWidth="1"/>
+    <col min="12" max="13" width="10.796875" style="72" customWidth="1"/>
     <col min="14" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="189" t="s">
         <v>191</v>
       </c>
@@ -7984,7 +7994,7 @@
       <c r="I1" s="189"/>
       <c r="J1" s="71"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
       <c r="D2" s="74"/>
@@ -7996,7 +8006,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="75" t="s">
         <v>0</v>
       </c>
@@ -8024,7 +8034,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="79" t="s">
         <v>1</v>
       </c>
@@ -8040,7 +8050,7 @@
       <c r="J4" s="80"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="83" t="s">
         <v>2</v>
       </c>
@@ -8068,7 +8078,7 @@
       <c r="J5" s="89"/>
       <c r="K5" s="90"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="83" t="s">
         <v>247</v>
       </c>
@@ -8099,7 +8109,7 @@
       <c r="J6" s="100"/>
       <c r="K6" s="90"/>
     </row>
-    <row r="7" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="28.8">
       <c r="B7" s="83" t="s">
         <v>248</v>
       </c>
@@ -8127,7 +8137,7 @@
       <c r="J7" s="89"/>
       <c r="K7" s="90"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="83" t="s">
         <v>250</v>
       </c>
@@ -8155,7 +8165,7 @@
       <c r="J8" s="89"/>
       <c r="K8" s="90"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="83" t="s">
         <v>249</v>
       </c>
@@ -8183,7 +8193,7 @@
       <c r="J9" s="89"/>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="83" t="s">
         <v>251</v>
       </c>
@@ -8211,7 +8221,7 @@
       <c r="J10" s="89"/>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="83" t="s">
         <v>4</v>
       </c>
@@ -8245,7 +8255,7 @@
       <c r="J11" s="91"/>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="83" t="s">
         <v>252</v>
       </c>
@@ -8273,7 +8283,7 @@
       <c r="J12" s="89"/>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="83" t="s">
         <v>253</v>
       </c>
@@ -8301,7 +8311,7 @@
       <c r="J13" s="89"/>
       <c r="K13" s="90"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="93" t="s">
         <v>5</v>
       </c>
@@ -8329,7 +8339,7 @@
       <c r="J14" s="89"/>
       <c r="K14" s="90"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="93" t="s">
         <v>362</v>
       </c>
@@ -8351,7 +8361,7 @@
       <c r="J15" s="89"/>
       <c r="K15" s="90"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="93" t="s">
         <v>363</v>
       </c>
@@ -8373,7 +8383,7 @@
       <c r="J16" s="89"/>
       <c r="K16" s="90"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="95" t="s">
         <v>6</v>
       </c>
@@ -8389,7 +8399,7 @@
       <c r="J17" s="97"/>
       <c r="K17" s="98"/>
     </row>
-    <row r="18" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="43.2">
       <c r="B18" s="83" t="s">
         <v>7</v>
       </c>
@@ -8414,7 +8424,7 @@
       <c r="J18" s="89"/>
       <c r="K18" s="90"/>
     </row>
-    <row r="19" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="28.8">
       <c r="B19" s="83" t="s">
         <v>39</v>
       </c>
@@ -8424,8 +8434,12 @@
       <c r="D19" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
+      <c r="E19" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="87"/>
       <c r="H19" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x06d-Testing-Data-Storage.md#testing-local-data-storage-mstg-storage-1-and-mstg-storage-2"),"Testing Local Data Storage (MSTG-STORAGE-1 and MSTG-STORAGE-2)")</f>
@@ -8435,7 +8449,7 @@
       <c r="J19" s="89"/>
       <c r="K19" s="90"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="83" t="s">
         <v>40</v>
       </c>
@@ -8460,7 +8474,7 @@
       <c r="J20" s="89"/>
       <c r="K20" s="90"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="83" t="s">
         <v>8</v>
       </c>
@@ -8485,7 +8499,7 @@
       <c r="J21" s="89"/>
       <c r="K21" s="90"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="83" t="s">
         <v>41</v>
       </c>
@@ -8510,7 +8524,7 @@
       <c r="J22" s="89"/>
       <c r="K22" s="90"/>
     </row>
-    <row r="23" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="83" t="s">
         <v>9</v>
       </c>
@@ -8535,7 +8549,7 @@
       <c r="J23" s="89"/>
       <c r="K23" s="90"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11">
       <c r="B24" s="83" t="s">
         <v>10</v>
       </c>
@@ -8560,7 +8574,7 @@
       <c r="J24" s="89"/>
       <c r="K24" s="90"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="83" t="s">
         <v>11</v>
       </c>
@@ -8585,7 +8599,7 @@
       <c r="J25" s="89"/>
       <c r="K25" s="90"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11">
       <c r="B26" s="83" t="s">
         <v>12</v>
       </c>
@@ -8610,7 +8624,7 @@
       <c r="J26" s="89"/>
       <c r="K26" s="90"/>
     </row>
-    <row r="27" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="28.8">
       <c r="B27" s="83" t="s">
         <v>42</v>
       </c>
@@ -8635,7 +8649,7 @@
       <c r="J27" s="89"/>
       <c r="K27" s="90"/>
     </row>
-    <row r="28" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" ht="28.8">
       <c r="B28" s="83" t="s">
         <v>43</v>
       </c>
@@ -8660,7 +8674,7 @@
       <c r="J28" s="89"/>
       <c r="K28" s="90"/>
     </row>
-    <row r="29" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="28.8">
       <c r="B29" s="83" t="s">
         <v>13</v>
       </c>
@@ -8685,7 +8699,7 @@
       <c r="J29" s="89"/>
       <c r="K29" s="90"/>
     </row>
-    <row r="30" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" ht="28.8">
       <c r="B30" s="83" t="s">
         <v>368</v>
       </c>
@@ -8707,7 +8721,7 @@
       <c r="J30" s="89"/>
       <c r="K30" s="90"/>
     </row>
-    <row r="31" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="28.8">
       <c r="B31" s="83" t="s">
         <v>369</v>
       </c>
@@ -8729,7 +8743,7 @@
       <c r="J31" s="89"/>
       <c r="K31" s="90"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11">
       <c r="B32" s="83" t="s">
         <v>370</v>
       </c>
@@ -8751,7 +8765,7 @@
       <c r="J32" s="89"/>
       <c r="K32" s="90"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12">
       <c r="B33" s="95" t="s">
         <v>14</v>
       </c>
@@ -8767,7 +8781,7 @@
       <c r="J33" s="97"/>
       <c r="K33" s="98"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12">
       <c r="B34" s="83" t="s">
         <v>15</v>
       </c>
@@ -8792,7 +8806,7 @@
       <c r="J34" s="89"/>
       <c r="K34" s="90"/>
     </row>
-    <row r="35" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12">
       <c r="B35" s="83" t="s">
         <v>16</v>
       </c>
@@ -8817,7 +8831,7 @@
       <c r="J35" s="89"/>
       <c r="K35" s="90"/>
     </row>
-    <row r="36" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="28.8">
       <c r="B36" s="83" t="s">
         <v>17</v>
       </c>
@@ -8842,7 +8856,7 @@
       <c r="J36" s="89"/>
       <c r="K36" s="90"/>
     </row>
-    <row r="37" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="28.8">
       <c r="B37" s="83" t="s">
         <v>18</v>
       </c>
@@ -8867,7 +8881,7 @@
       <c r="J37" s="89"/>
       <c r="K37" s="90"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12">
       <c r="B38" s="83" t="s">
         <v>19</v>
       </c>
@@ -8892,7 +8906,7 @@
       <c r="J38" s="89"/>
       <c r="K38" s="90"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12">
       <c r="B39" s="83" t="s">
         <v>20</v>
       </c>
@@ -8917,7 +8931,7 @@
       <c r="J39" s="89"/>
       <c r="K39" s="90"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12">
       <c r="B40" s="95" t="s">
         <v>21</v>
       </c>
@@ -8933,7 +8947,7 @@
       <c r="J40" s="97"/>
       <c r="K40" s="98"/>
     </row>
-    <row r="41" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="28.8">
       <c r="B41" s="83" t="s">
         <v>22</v>
       </c>
@@ -8961,7 +8975,7 @@
       <c r="J41" s="100"/>
       <c r="K41" s="90"/>
     </row>
-    <row r="42" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="28.8">
       <c r="B42" s="83" t="s">
         <v>44</v>
       </c>
@@ -8986,7 +9000,7 @@
       <c r="J42" s="89"/>
       <c r="K42" s="90"/>
     </row>
-    <row r="43" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="28.8">
       <c r="B43" s="83" t="s">
         <v>45</v>
       </c>
@@ -9015,7 +9029,7 @@
       <c r="K43" s="90"/>
       <c r="L43" s="103"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12">
       <c r="B44" s="83" t="s">
         <v>23</v>
       </c>
@@ -9025,8 +9039,12 @@
       <c r="D44" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
+      <c r="E44" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="86" t="s">
+        <v>3</v>
+      </c>
       <c r="G44" s="87"/>
       <c r="H44" s="100" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -9037,7 +9055,7 @@
       <c r="K44" s="90"/>
       <c r="L44" s="103"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12">
       <c r="B45" s="83" t="s">
         <v>24</v>
       </c>
@@ -9062,7 +9080,7 @@
       <c r="J45" s="89"/>
       <c r="K45" s="90"/>
     </row>
-    <row r="46" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" ht="28.8">
       <c r="B46" s="83" t="s">
         <v>46</v>
       </c>
@@ -9090,7 +9108,7 @@
       <c r="J46" s="100"/>
       <c r="K46" s="90"/>
     </row>
-    <row r="47" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" ht="28.8">
       <c r="B47" s="83" t="s">
         <v>47</v>
       </c>
@@ -9115,7 +9133,7 @@
       <c r="J47" s="103"/>
       <c r="K47" s="104"/>
     </row>
-    <row r="48" spans="2:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" ht="43.2">
       <c r="B48" s="83" t="s">
         <v>25</v>
       </c>
@@ -9140,7 +9158,7 @@
       <c r="J48" s="100"/>
       <c r="K48" s="90"/>
     </row>
-    <row r="49" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" ht="28.8">
       <c r="B49" s="83" t="s">
         <v>26</v>
       </c>
@@ -9165,7 +9183,7 @@
       <c r="J49" s="89"/>
       <c r="K49" s="90"/>
     </row>
-    <row r="50" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11">
       <c r="B50" s="83" t="s">
         <v>27</v>
       </c>
@@ -9190,7 +9208,7 @@
       <c r="J50" s="89"/>
       <c r="K50" s="90"/>
     </row>
-    <row r="51" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" ht="43.2">
       <c r="B51" s="83" t="s">
         <v>80</v>
       </c>
@@ -9218,7 +9236,7 @@
       <c r="J51" s="89"/>
       <c r="K51" s="90"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11">
       <c r="B52" s="83" t="s">
         <v>378</v>
       </c>
@@ -9240,7 +9258,7 @@
       <c r="J52" s="89"/>
       <c r="K52" s="90"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11">
       <c r="B53" s="95" t="s">
         <v>28</v>
       </c>
@@ -9256,7 +9274,7 @@
       <c r="J53" s="97"/>
       <c r="K53" s="98"/>
     </row>
-    <row r="54" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" ht="28.8">
       <c r="B54" s="83" t="s">
         <v>29</v>
       </c>
@@ -9281,7 +9299,7 @@
       <c r="J54" s="91"/>
       <c r="K54" s="106"/>
     </row>
-    <row r="55" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" ht="28.8">
       <c r="B55" s="83" t="s">
         <v>48</v>
       </c>
@@ -9309,7 +9327,7 @@
       <c r="J55" s="91"/>
       <c r="K55" s="106"/>
     </row>
-    <row r="56" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="83" t="s">
         <v>30</v>
       </c>
@@ -9334,7 +9352,7 @@
       <c r="J56" s="89"/>
       <c r="K56" s="90"/>
     </row>
-    <row r="57" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" ht="43.2">
       <c r="B57" s="83" t="s">
         <v>49</v>
       </c>
@@ -9359,7 +9377,7 @@
       <c r="J57" s="89"/>
       <c r="K57" s="90"/>
     </row>
-    <row r="58" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="83" t="s">
         <v>31</v>
       </c>
@@ -9384,7 +9402,7 @@
       <c r="J58" s="89"/>
       <c r="K58" s="90"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11">
       <c r="B59" s="83" t="s">
         <v>254</v>
       </c>
@@ -9412,7 +9430,7 @@
       <c r="J59" s="89"/>
       <c r="K59" s="90"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60" s="95" t="s">
         <v>32</v>
       </c>
@@ -9428,7 +9446,7 @@
       <c r="J60" s="97"/>
       <c r="K60" s="98"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11">
       <c r="B61" s="83" t="s">
         <v>50</v>
       </c>
@@ -9453,7 +9471,7 @@
       <c r="J61" s="89"/>
       <c r="K61" s="90"/>
     </row>
-    <row r="62" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" ht="43.2">
       <c r="B62" s="83" t="s">
         <v>51</v>
       </c>
@@ -9478,7 +9496,7 @@
       <c r="J62" s="89"/>
       <c r="K62" s="90"/>
     </row>
-    <row r="63" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" ht="28.8">
       <c r="B63" s="83" t="s">
         <v>52</v>
       </c>
@@ -9503,7 +9521,7 @@
       <c r="J63" s="89"/>
       <c r="K63" s="90"/>
     </row>
-    <row r="64" spans="2:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="28.05" customHeight="1">
       <c r="B64" s="83" t="s">
         <v>53</v>
       </c>
@@ -9531,7 +9549,7 @@
       <c r="J64" s="89"/>
       <c r="K64" s="90"/>
     </row>
-    <row r="65" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" ht="22.5" customHeight="1">
       <c r="B65" s="83" t="s">
         <v>54</v>
       </c>
@@ -9556,7 +9574,7 @@
       <c r="J65" s="89"/>
       <c r="K65" s="90"/>
     </row>
-    <row r="66" spans="2:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" ht="43.2">
       <c r="B66" s="83" t="s">
         <v>55</v>
       </c>
@@ -9581,7 +9599,7 @@
       <c r="J66" s="89"/>
       <c r="K66" s="90"/>
     </row>
-    <row r="67" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="28.8">
       <c r="B67" s="83" t="s">
         <v>255</v>
       </c>
@@ -9606,7 +9624,7 @@
       <c r="J67" s="89"/>
       <c r="K67" s="90"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11">
       <c r="B68" s="83" t="s">
         <v>256</v>
       </c>
@@ -9631,7 +9649,7 @@
       <c r="J68" s="89"/>
       <c r="K68" s="90"/>
     </row>
-    <row r="69" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" ht="28.8">
       <c r="B69" s="83" t="s">
         <v>382</v>
       </c>
@@ -9653,7 +9671,7 @@
       <c r="J69" s="89"/>
       <c r="K69" s="90"/>
     </row>
-    <row r="70" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" ht="28.8">
       <c r="B70" s="83" t="s">
         <v>383</v>
       </c>
@@ -9675,7 +9693,7 @@
       <c r="J70" s="89"/>
       <c r="K70" s="90"/>
     </row>
-    <row r="71" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" ht="28.8">
       <c r="B71" s="83" t="s">
         <v>384</v>
       </c>
@@ -9697,7 +9715,7 @@
       <c r="J71" s="89"/>
       <c r="K71" s="90"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11">
       <c r="B72" s="95" t="s">
         <v>33</v>
       </c>
@@ -9713,7 +9731,7 @@
       <c r="J72" s="97"/>
       <c r="K72" s="98"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11">
       <c r="B73" s="83" t="s">
         <v>56</v>
       </c>
@@ -9738,7 +9756,7 @@
       <c r="J73" s="89"/>
       <c r="K73" s="90"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11">
       <c r="B74" s="83" t="s">
         <v>34</v>
       </c>
@@ -9763,7 +9781,7 @@
       <c r="J74" s="89"/>
       <c r="K74" s="90"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11">
       <c r="B75" s="83" t="s">
         <v>57</v>
       </c>
@@ -9788,7 +9806,7 @@
       <c r="J75" s="89"/>
       <c r="K75" s="90"/>
     </row>
-    <row r="76" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" ht="28.8">
       <c r="B76" s="83" t="s">
         <v>58</v>
       </c>
@@ -9813,7 +9831,7 @@
       <c r="J76" s="89"/>
       <c r="K76" s="90"/>
     </row>
-    <row r="77" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" ht="28.8">
       <c r="B77" s="83" t="s">
         <v>59</v>
       </c>
@@ -9838,7 +9856,7 @@
       <c r="J77" s="89"/>
       <c r="K77" s="90"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11">
       <c r="B78" s="83" t="s">
         <v>35</v>
       </c>
@@ -9863,7 +9881,7 @@
       <c r="J78" s="89"/>
       <c r="K78" s="90"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11">
       <c r="B79" s="83" t="s">
         <v>36</v>
       </c>
@@ -9888,7 +9906,7 @@
       <c r="J79" s="89"/>
       <c r="K79" s="90"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11">
       <c r="B80" s="83" t="s">
         <v>37</v>
       </c>
@@ -9913,7 +9931,7 @@
       <c r="J80" s="89"/>
       <c r="K80" s="90"/>
     </row>
-    <row r="81" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" ht="28.8">
       <c r="B81" s="83" t="s">
         <v>81</v>
       </c>
@@ -9938,7 +9956,7 @@
       <c r="J81" s="89"/>
       <c r="K81" s="90"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11">
       <c r="B82" s="107"/>
       <c r="C82" s="108"/>
       <c r="D82" s="109"/>
@@ -9950,7 +9968,7 @@
       <c r="J82" s="108"/>
       <c r="K82" s="110"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:11">
       <c r="B83" s="111"/>
       <c r="C83" s="111"/>
       <c r="D83" s="112"/>
@@ -9962,7 +9980,7 @@
       <c r="J83" s="111"/>
       <c r="K83" s="111"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11">
       <c r="B84" s="111"/>
       <c r="C84" s="111"/>
       <c r="D84" s="89"/>
@@ -9974,7 +9992,7 @@
       <c r="J84" s="111"/>
       <c r="K84" s="111"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11">
       <c r="B85" s="111"/>
       <c r="C85" s="111"/>
       <c r="D85" s="112"/>
@@ -9986,7 +10004,7 @@
       <c r="J85" s="111"/>
       <c r="K85" s="111"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11">
       <c r="B86" s="113" t="s">
         <v>214</v>
       </c>
@@ -10000,7 +10018,7 @@
       <c r="J86" s="111"/>
       <c r="K86" s="111"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:11">
       <c r="B87" s="114" t="s">
         <v>217</v>
       </c>
@@ -10016,7 +10034,7 @@
       <c r="J87" s="111"/>
       <c r="K87" s="111"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:11">
       <c r="B88" s="35" t="s">
         <v>176</v>
       </c>
@@ -10032,7 +10050,7 @@
       <c r="J88" s="111"/>
       <c r="K88" s="111"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:11">
       <c r="B89" s="35" t="s">
         <v>177</v>
       </c>
@@ -10048,7 +10066,7 @@
       <c r="J89" s="111"/>
       <c r="K89" s="111"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:11">
       <c r="B90" s="22" t="s">
         <v>63</v>
       </c>
@@ -10064,7 +10082,7 @@
       <c r="J90" s="111"/>
       <c r="K90" s="111"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11">
       <c r="B91" s="111"/>
       <c r="C91" s="111"/>
       <c r="D91" s="112"/>
@@ -10076,7 +10094,7 @@
       <c r="J91" s="116"/>
       <c r="K91" s="116"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:11">
       <c r="B92" s="111"/>
       <c r="C92" s="111"/>
       <c r="D92" s="112"/>
@@ -10088,7 +10106,7 @@
       <c r="J92" s="116"/>
       <c r="K92" s="116"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11">
       <c r="B93" s="111"/>
       <c r="C93" s="111"/>
       <c r="D93" s="112"/>
@@ -10100,7 +10118,7 @@
       <c r="J93" s="116"/>
       <c r="K93" s="116"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:11">
       <c r="B94" s="116"/>
       <c r="C94" s="116"/>
       <c r="D94" s="117"/>
@@ -10140,20 +10158,20 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="72" customWidth="1"/>
+    <col min="1" max="1" width="1.796875" style="72" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="72" customWidth="1"/>
-    <col min="4" max="4" width="93.33203125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="72" customWidth="1"/>
+    <col min="4" max="4" width="93.296875" style="72" customWidth="1"/>
     <col min="5" max="5" width="3" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="71.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="71.296875" style="72" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="72" customWidth="1"/>
     <col min="9" max="16384" width="11" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="128" t="s">
         <v>103</v>
       </c>
@@ -10164,7 +10182,7 @@
       <c r="G1" s="116"/>
       <c r="H1" s="116"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8">
       <c r="B2" s="116"/>
       <c r="C2" s="116"/>
       <c r="D2" s="116"/>
@@ -10173,7 +10191,7 @@
       <c r="G2" s="116"/>
       <c r="H2" s="116"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" s="75"/>
       <c r="C3" s="76" t="s">
         <v>285</v>
@@ -10194,7 +10212,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="95" t="s">
         <v>0</v>
       </c>
@@ -10207,7 +10225,7 @@
       <c r="G4" s="97"/>
       <c r="H4" s="98"/>
     </row>
-    <row r="5" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="83" t="s">
         <v>257</v>
       </c>
@@ -10229,7 +10247,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="28.8">
       <c r="B6" s="83" t="s">
         <v>258</v>
       </c>
@@ -10251,7 +10269,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="B7" s="83" t="s">
         <v>259</v>
       </c>
@@ -10273,7 +10291,7 @@
       </c>
       <c r="H7" s="90"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8" s="83" t="s">
         <v>260</v>
       </c>
@@ -10294,7 +10312,7 @@
       </c>
       <c r="H8" s="90"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="83" t="s">
         <v>261</v>
       </c>
@@ -10315,7 +10333,7 @@
       </c>
       <c r="H9" s="90"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="83" t="s">
         <v>262</v>
       </c>
@@ -10334,7 +10352,7 @@
       <c r="G10" s="137"/>
       <c r="H10" s="90"/>
     </row>
-    <row r="11" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="83" t="s">
         <v>263</v>
       </c>
@@ -10355,7 +10373,7 @@
       </c>
       <c r="H11" s="90"/>
     </row>
-    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="28.8">
       <c r="B12" s="83" t="s">
         <v>264</v>
       </c>
@@ -10376,7 +10394,7 @@
       </c>
       <c r="H12" s="90"/>
     </row>
-    <row r="13" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="28.8">
       <c r="B13" s="83" t="s">
         <v>265</v>
       </c>
@@ -10397,7 +10415,7 @@
       </c>
       <c r="H13" s="90"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
@@ -10408,7 +10426,7 @@
       <c r="G14" s="97"/>
       <c r="H14" s="98"/>
     </row>
-    <row r="15" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="93" t="s">
         <v>60</v>
       </c>
@@ -10430,7 +10448,7 @@
       </c>
       <c r="H15" s="90"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
       <c r="D16" s="97" t="s">
@@ -10441,7 +10459,7 @@
       <c r="G16" s="97"/>
       <c r="H16" s="98"/>
     </row>
-    <row r="17" spans="2:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="83" t="s">
         <v>266</v>
       </c>
@@ -10463,7 +10481,7 @@
       </c>
       <c r="H17" s="90"/>
     </row>
-    <row r="18" spans="2:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="72">
       <c r="B18" s="83" t="s">
         <v>267</v>
       </c>
@@ -10484,7 +10502,7 @@
       </c>
       <c r="H18" s="90"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="95"/>
       <c r="C19" s="96"/>
       <c r="D19" s="97" t="s">
@@ -10495,7 +10513,7 @@
       <c r="G19" s="97"/>
       <c r="H19" s="98"/>
     </row>
-    <row r="20" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="83" t="s">
         <v>391</v>
       </c>
@@ -10516,7 +10534,7 @@
       </c>
       <c r="H20" s="90"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="107"/>
       <c r="C21" s="108"/>
       <c r="D21" s="109"/>
@@ -10525,7 +10543,7 @@
       <c r="G21" s="108"/>
       <c r="H21" s="110"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
       <c r="D22" s="111"/>
@@ -10534,7 +10552,7 @@
       <c r="G22" s="111"/>
       <c r="H22" s="111"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="111"/>
       <c r="C23" s="111"/>
       <c r="D23" s="111"/>
@@ -10543,7 +10561,7 @@
       <c r="G23" s="111"/>
       <c r="H23" s="111"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="113" t="s">
         <v>214</v>
       </c>
@@ -10554,7 +10572,7 @@
       <c r="G24" s="111"/>
       <c r="H24" s="111"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="114" t="s">
         <v>217</v>
       </c>
@@ -10567,7 +10585,7 @@
       <c r="G25" s="111"/>
       <c r="H25" s="111"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="35" t="s">
         <v>176</v>
       </c>
@@ -10580,7 +10598,7 @@
       <c r="G26" s="111"/>
       <c r="H26" s="111"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="35" t="s">
         <v>177</v>
       </c>
@@ -10593,7 +10611,7 @@
       <c r="G27" s="111"/>
       <c r="H27" s="111"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="22" t="s">
         <v>63</v>
       </c>
@@ -10606,7 +10624,7 @@
       <c r="G28" s="111"/>
       <c r="H28" s="111"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
       <c r="D29" s="116"/>
@@ -10615,7 +10633,7 @@
       <c r="G29" s="116"/>
       <c r="H29" s="116"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
       <c r="D30" s="116"/>
@@ -10624,7 +10642,7 @@
       <c r="G30" s="116"/>
       <c r="H30" s="116"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="116"/>
       <c r="C31" s="116"/>
       <c r="D31" s="116"/>
@@ -10659,15 +10677,15 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="104.1640625" customWidth="1"/>
+    <col min="5" max="5" width="104.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="192" t="s">
         <v>106</v>
       </c>
@@ -10676,7 +10694,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="36" t="s">
         <v>111</v>
       </c>
@@ -10693,7 +10711,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="27" t="s">
         <v>61</v>
       </c>
@@ -10708,7 +10726,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="26" t="s">
         <v>62</v>
       </c>
@@ -10723,7 +10741,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="26" t="s">
         <v>73</v>
       </c>
@@ -10738,7 +10756,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="26" t="s">
         <v>74</v>
       </c>
@@ -10753,7 +10771,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="26" t="s">
         <v>62</v>
       </c>
@@ -10768,7 +10786,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="26" t="s">
         <v>74</v>
       </c>
@@ -10783,7 +10801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="26" t="s">
         <v>62</v>
       </c>
@@ -10798,7 +10816,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="26" t="s">
         <v>62</v>
       </c>
@@ -10813,7 +10831,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="26" t="s">
         <v>62</v>
       </c>
@@ -10828,7 +10846,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="26" t="s">
         <v>62</v>
       </c>
@@ -10843,7 +10861,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
         <v>104</v>
       </c>
@@ -10858,7 +10876,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="26" t="s">
         <v>112</v>
       </c>
@@ -10873,7 +10891,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="409.6">
       <c r="A15" s="47" t="s">
         <v>241</v>
       </c>
@@ -10890,7 +10908,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="46.5" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>104</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="135.75" customHeight="1">
       <c r="A17" s="54" t="s">
         <v>241</v>
       </c>
@@ -10924,7 +10942,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="135.75" customHeight="1">
       <c r="A18" s="59" t="s">
         <v>104</v>
       </c>
@@ -10941,7 +10959,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="135.75" customHeight="1">
       <c r="A19" s="132" t="s">
         <v>104</v>
       </c>
@@ -10958,7 +10976,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="32.549999999999997" customHeight="1">
       <c r="A20" s="132" t="s">
         <v>104</v>
       </c>
@@ -10975,7 +10993,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="51.45" customHeight="1">
       <c r="A21" s="132" t="s">
         <v>104</v>
       </c>
@@ -10992,7 +11010,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="32.549999999999997" customHeight="1">
       <c r="A22" s="132" t="s">
         <v>104</v>
       </c>
@@ -11009,7 +11027,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="132" t="s">
         <v>104</v>
       </c>
@@ -11026,7 +11044,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="46.8">
       <c r="A24" s="132" t="s">
         <v>104</v>
       </c>
@@ -11043,7 +11061,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="234">
       <c r="A25" s="132" t="s">
         <v>396</v>
       </c>
